--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>582595.849563974</v>
+        <v>584535.9294337567</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925407.278659209</v>
+        <v>925407.2786592081</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>35.72422578294405</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>274.2838073416025</v>
@@ -725,7 +727,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>78.71964920959023</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>174.0731454704993</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>190.9632541887276</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1023,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>154.2141932558485</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>21.0043825560036</v>
       </c>
       <c r="Y6" t="n">
         <v>203.671151418586</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.138716923775</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
         <v>14.77440971783335</v>
@@ -1139,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>35.70559250379682</v>
       </c>
       <c r="F8" t="n">
-        <v>168.1385771445223</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G8" t="n">
         <v>274.2838073416025</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1209,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>20.07867728478316</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>24.89607548178781</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
         <v>136.0232102050423</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="J10" t="n">
-        <v>84.37801704792682</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
         <v>14.77440971783335</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>35.72422578294405</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>242.2819443339098</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>114.7736570458744</v>
       </c>
       <c r="C12" t="n">
-        <v>22.14264730653983</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
         <v>146.1124235746456</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.57657371040603</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1622,13 +1624,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="H14" t="n">
-        <v>241.5891775064833</v>
+        <v>35.7055925037969</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1683,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>114.7736570458744</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>64.80783300507451</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>99.15242676576018</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1841,31 +1843,31 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>35.70559250379682</v>
+      </c>
+      <c r="F17" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="G17" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>99.73835480560622</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1971,10 +1973,10 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T18" t="n">
-        <v>58.72873530486501</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U18" t="n">
         <v>224.6571770672012</v>
@@ -1983,10 +1985,10 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>145.8355658494302</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S19" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2084,11 +2086,11 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -2099,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>40.77082694055858</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2132,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>36.36486963835926</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X20" t="n">
         <v>274.2838073416025</v>
@@ -2160,25 +2162,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
-        <v>86.50354346547167</v>
+        <v>61.84929990653631</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2214,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>214.5508788266303</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="E23" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>103.3959996212457</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2412,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>10.63571075962435</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>224.6571770672012</v>
@@ -2457,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
         <v>203.671151418586</v>
@@ -2533,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W25" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F26" t="n">
         <v>274.2838073416025</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2685,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>174.4097407145716</v>
       </c>
       <c r="U27" t="n">
-        <v>174.4097407145713</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2795,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>263.7359441369791</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,58 +2809,58 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>251.4777635765444</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="V29" t="n">
+      <c r="Y29" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="W29" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2877,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>174.4097407145716</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>38.23525922204841</v>
+        <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.57657371040603</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>86.38363879356375</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3108,13 +3110,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>102.9935281470527</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>9.037615104226628</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3168,7 +3170,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>204.4616296084783</v>
@@ -3196,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>32.75410523180386</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.5891775064833</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="E35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3399,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>174.4097407145713</v>
+        <v>174.4097407145716</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3427,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>29.90756012708908</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3503,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3557,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3636,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>174.4097407145713</v>
+        <v>174.4097407145716</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3661,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>11.57657371040602</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>274.2838073416025</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="Y41" t="n">
         <v>274.2838073416025</v>
@@ -3825,16 +3827,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>65.82870076221839</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3873,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145716</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3882,10 +3884,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3940,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3989,61 +3991,61 @@
         <v>274.2838073416025</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>240.9299003719209</v>
+      </c>
+      <c r="Y44" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="H44" t="n">
-        <v>36.36486963835932</v>
-      </c>
-      <c r="I44" t="n">
-        <v>205.224307868124</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>17.76425168466131</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4110,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.4097407145716</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T46" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4334,16 +4336,16 @@
         <v>143.241092649432</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M2" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P2" t="n">
         <v>1093.116282134284</v>
@@ -4355,25 +4357,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T2" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="U2" t="n">
-        <v>853.1057571376389</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="V2" t="n">
-        <v>576.0514062875353</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="W2" t="n">
-        <v>298.9970554374318</v>
+        <v>612.1364828359636</v>
       </c>
       <c r="X2" t="n">
-        <v>21.9427045873282</v>
+        <v>335.0821319858601</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.9427045873282</v>
+        <v>58.02778113575653</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.9427045873282</v>
+        <v>724.3642424684999</v>
       </c>
       <c r="C3" t="n">
-        <v>21.9427045873282</v>
+        <v>551.6111273903171</v>
       </c>
       <c r="D3" t="n">
-        <v>21.9427045873282</v>
+        <v>404.0228207492609</v>
       </c>
       <c r="E3" t="n">
-        <v>21.9427045873282</v>
+        <v>246.4132917521156</v>
       </c>
       <c r="F3" t="n">
-        <v>21.9427045873282</v>
+        <v>101.4575017687325</v>
       </c>
       <c r="G3" t="n">
         <v>21.9427045873282</v>
@@ -4410,19 +4412,19 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>168.577974491964</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L3" t="n">
-        <v>416.655578933882</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M3" t="n">
-        <v>688.1965482020685</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N3" t="n">
-        <v>817.386591515115</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="O3" t="n">
-        <v>817.386591515115</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="P3" t="n">
         <v>1015.957061350112</v>
@@ -4431,28 +4433,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S3" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T3" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U3" t="n">
-        <v>403.5026004348891</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V3" t="n">
-        <v>227.6711403636777</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W3" t="n">
-        <v>227.6711403636777</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X3" t="n">
-        <v>227.6711403636777</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.9427045873282</v>
+        <v>891.4067935900604</v>
       </c>
     </row>
     <row r="4">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>214.8348805355379</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="C5" t="n">
-        <v>214.8348805355379</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D5" t="n">
-        <v>214.8348805355379</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="E5" t="n">
-        <v>214.8348805355379</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="F5" t="n">
-        <v>214.8348805355379</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="G5" t="n">
-        <v>214.8348805355379</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="H5" t="n">
         <v>21.9427045873282</v>
@@ -4571,16 +4573,16 @@
         <v>143.241092649432</v>
       </c>
       <c r="L5" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M5" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N5" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P5" t="n">
         <v>1093.116282134284</v>
@@ -4589,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S5" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T5" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U5" t="n">
-        <v>491.8892313856415</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V5" t="n">
-        <v>214.8348805355379</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W5" t="n">
-        <v>214.8348805355379</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="X5" t="n">
-        <v>214.8348805355379</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y5" t="n">
-        <v>214.8348805355379</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.9427045873282</v>
+        <v>332.0930016908063</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9427045873282</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="D6" t="n">
-        <v>21.9427045873282</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="E6" t="n">
-        <v>21.9427045873282</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="F6" t="n">
-        <v>21.9427045873282</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="G6" t="n">
         <v>21.9427045873282</v>
@@ -4644,22 +4646,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K6" t="n">
-        <v>161.1846636454791</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L6" t="n">
-        <v>409.2622680873972</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M6" t="n">
-        <v>680.8032373555836</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N6" t="n">
-        <v>680.8032373555836</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="O6" t="n">
-        <v>898.564759531413</v>
+        <v>1088.375177389425</v>
       </c>
       <c r="P6" t="n">
         <v>1097.13522936641</v>
@@ -4671,25 +4673,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S6" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T6" t="n">
-        <v>941.363316986765</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U6" t="n">
-        <v>714.4368755047435</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="V6" t="n">
-        <v>480.1856320303444</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="W6" t="n">
-        <v>227.6711403636777</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="X6" t="n">
-        <v>227.6711403636777</v>
+        <v>704.8639885887163</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.9427045873282</v>
+        <v>499.1355528123668</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C7" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D7" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E7" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F7" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G7" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H7" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I7" t="n">
-        <v>36.86635076695784</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J7" t="n">
         <v>36.86635076695784</v>
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E8" t="n">
-        <v>953.8515700725947</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="F8" t="n">
         <v>784.014623461966</v>
@@ -4805,19 +4807,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K8" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L8" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M8" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N8" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
         <v>1093.116282134284</v>
@@ -4826,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>383.4430527433227</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="C9" t="n">
-        <v>383.4430527433227</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D9" t="n">
-        <v>383.4430527433227</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E9" t="n">
-        <v>358.2955017516178</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F9" t="n">
         <v>358.2955017516178</v>
@@ -4881,52 +4883,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>107.405216553122</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L9" t="n">
-        <v>355.48282099504</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="M9" t="n">
-        <v>627.0237902632265</v>
+        <v>432.7256329136656</v>
       </c>
       <c r="N9" t="n">
-        <v>898.564759531413</v>
+        <v>704.266602181852</v>
       </c>
       <c r="O9" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P9" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U9" t="n">
-        <v>870.2087878843885</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="V9" t="n">
-        <v>635.9575444099894</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="W9" t="n">
-        <v>383.4430527433227</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="X9" t="n">
-        <v>383.4430527433227</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="Y9" t="n">
-        <v>383.4430527433227</v>
+        <v>1001.483734658237</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I10" t="n">
-        <v>122.096671017389</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J10" t="n">
         <v>36.86635076695784</v>
@@ -4981,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>889.1908336860672</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C11" t="n">
-        <v>889.1908336860672</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D11" t="n">
-        <v>889.1908336860672</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E11" t="n">
-        <v>889.1908336860672</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F11" t="n">
-        <v>612.1364828359636</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G11" t="n">
-        <v>335.0821319858601</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H11" t="n">
-        <v>58.02778113575653</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I11" t="n">
         <v>21.9427045873282</v>
@@ -5042,10 +5044,10 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K11" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L11" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M11" t="n">
         <v>586.1689795623907</v>
@@ -5063,28 +5065,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R11" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S11" t="n">
-        <v>889.1908336860672</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T11" t="n">
-        <v>889.1908336860672</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U11" t="n">
-        <v>889.1908336860672</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V11" t="n">
-        <v>889.1908336860672</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W11" t="n">
-        <v>889.1908336860672</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X11" t="n">
-        <v>889.1908336860672</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y11" t="n">
-        <v>889.1908336860672</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>830.8154377838487</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="C12" t="n">
         <v>808.4491273732024</v>
@@ -5121,49 +5123,49 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K12" t="n">
-        <v>38.09606741079833</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L12" t="n">
-        <v>286.1736718527163</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M12" t="n">
-        <v>557.7146411209028</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N12" t="n">
-        <v>829.2556103890893</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O12" t="n">
-        <v>1097.13522936641</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P12" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q12" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R12" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S12" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T12" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U12" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V12" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W12" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X12" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y12" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>190.9695257299568</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I13" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J13" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K13" t="n">
         <v>21.9427045873282</v>
@@ -5218,31 +5220,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q13" t="n">
-        <v>190.9695257299568</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R13" t="n">
-        <v>190.9695257299568</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S13" t="n">
-        <v>190.9695257299568</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T13" t="n">
-        <v>190.9695257299568</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U13" t="n">
-        <v>190.9695257299568</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V13" t="n">
-        <v>190.9695257299568</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W13" t="n">
-        <v>190.9695257299568</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X13" t="n">
-        <v>190.9695257299568</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y13" t="n">
-        <v>190.9695257299568</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="14">
@@ -5270,10 +5272,10 @@
         <v>265.9721768160992</v>
       </c>
       <c r="H14" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I14" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J14" t="n">
         <v>21.9427045873282</v>
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.9427045873282</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="C15" t="n">
-        <v>21.9427045873282</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D15" t="n">
-        <v>21.9427045873282</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E15" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F15" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G15" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H15" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I15" t="n">
         <v>21.9427045873282</v>
@@ -5367,40 +5369,40 @@
         <v>440.1189437601505</v>
       </c>
       <c r="N15" t="n">
-        <v>630.6851405540922</v>
+        <v>711.659913028337</v>
       </c>
       <c r="O15" t="n">
-        <v>898.564759531413</v>
+        <v>979.5395320056577</v>
       </c>
       <c r="P15" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q15" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R15" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S15" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T15" t="n">
-        <v>801.0973387912989</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U15" t="n">
-        <v>574.1708973092774</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V15" t="n">
-        <v>339.9196538348783</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W15" t="n">
-        <v>87.40516216821155</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X15" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y15" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I16" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K16" t="n">
         <v>21.9427045873282</v>
@@ -5455,31 +5457,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q16" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="S16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>298.9970554374318</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C17" t="n">
-        <v>298.9970554374318</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D17" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E17" t="n">
-        <v>21.9427045873282</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="F17" t="n">
-        <v>21.9427045873282</v>
+        <v>784.014623461966</v>
       </c>
       <c r="G17" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="H17" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I17" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J17" t="n">
         <v>21.9427045873282</v>
@@ -5537,28 +5539,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S17" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T17" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U17" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V17" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W17" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X17" t="n">
-        <v>576.0514062875353</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y17" t="n">
-        <v>576.0514062875353</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="18">
@@ -5592,16 +5594,16 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J18" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K18" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L18" t="n">
-        <v>409.2622680873972</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M18" t="n">
-        <v>549.5069725377944</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N18" t="n">
         <v>549.5069725377944</v>
@@ -5619,19 +5621,19 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S18" t="n">
-        <v>1001.483734658237</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T18" t="n">
-        <v>942.1617798048379</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U18" t="n">
-        <v>715.2353383228165</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V18" t="n">
-        <v>480.9840948484174</v>
+        <v>169.25135696049</v>
       </c>
       <c r="W18" t="n">
-        <v>228.4696031817507</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X18" t="n">
         <v>21.9427045873282</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="C19" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="D19" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="E19" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="F19" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="G19" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="H19" t="n">
         <v>21.9427045873282</v>
@@ -5695,28 +5697,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R19" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S19" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="T19" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="V19" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="W19" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="X19" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="Y19" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>340.8456454123015</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="C20" t="n">
-        <v>340.8456454123015</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="D20" t="n">
-        <v>63.79129456219789</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="E20" t="n">
-        <v>63.79129456219789</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="F20" t="n">
-        <v>63.79129456219789</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="G20" t="n">
-        <v>63.79129456219789</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H20" t="n">
-        <v>63.79129456219789</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I20" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J20" t="n">
         <v>21.9427045873282</v>
@@ -5780,22 +5782,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T20" t="n">
-        <v>871.9179392690156</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U20" t="n">
-        <v>617.899996262405</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V20" t="n">
-        <v>617.899996262405</v>
+        <v>1060.403037812512</v>
       </c>
       <c r="W20" t="n">
-        <v>617.899996262405</v>
+        <v>783.348686962408</v>
       </c>
       <c r="X20" t="n">
-        <v>340.8456454123015</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="Y20" t="n">
-        <v>340.8456454123015</v>
+        <v>506.2943361123045</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>393.6514348045054</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="C21" t="n">
-        <v>220.8983197263226</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="D21" t="n">
-        <v>220.8983197263226</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="E21" t="n">
-        <v>220.8983197263226</v>
+        <v>478.3480154128441</v>
       </c>
       <c r="F21" t="n">
-        <v>220.8983197263226</v>
+        <v>333.392225429461</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8983197263226</v>
+        <v>195.9950434041657</v>
       </c>
       <c r="H21" t="n">
-        <v>109.3200212191178</v>
+        <v>84.41674489696084</v>
       </c>
       <c r="I21" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J21" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K21" t="n">
-        <v>38.09606741079833</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L21" t="n">
-        <v>286.1736718527163</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M21" t="n">
-        <v>557.7146411209028</v>
+        <v>680.8032373555836</v>
       </c>
       <c r="N21" t="n">
-        <v>829.2556103890893</v>
+        <v>952.3442066237701</v>
       </c>
       <c r="O21" t="n">
         <v>1097.13522936641</v>
@@ -5862,19 +5864,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U21" t="n">
-        <v>880.4171699455712</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V21" t="n">
-        <v>646.1659264711722</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W21" t="n">
-        <v>393.6514348045054</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="X21" t="n">
-        <v>393.6514348045054</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="Y21" t="n">
-        <v>393.6514348045054</v>
+        <v>635.9575444099894</v>
       </c>
     </row>
     <row r="22">
@@ -5938,13 +5940,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W22" t="n">
         <v>21.9427045873282</v>
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>1097.13522936641</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1097.13522936641</v>
+      </c>
+      <c r="D23" t="n">
+        <v>853.1057571376389</v>
+      </c>
+      <c r="E23" t="n">
         <v>576.0514062875353</v>
       </c>
-      <c r="C23" t="n">
-        <v>576.0514062875353</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="F23" t="n">
         <v>298.9970554374318</v>
-      </c>
-      <c r="E23" t="n">
-        <v>298.9970554374318</v>
-      </c>
-      <c r="F23" t="n">
-        <v>21.9427045873282</v>
       </c>
       <c r="G23" t="n">
         <v>21.9427045873282</v>
@@ -5999,10 +6001,10 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N23" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O23" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P23" t="n">
         <v>1093.116282134284</v>
@@ -6026,13 +6028,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W23" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X23" t="n">
-        <v>576.0514062875353</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y23" t="n">
-        <v>576.0514062875353</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>126.3831082451521</v>
+        <v>205.4389618469498</v>
       </c>
       <c r="C24" t="n">
-        <v>21.9427045873282</v>
+        <v>32.68584676876694</v>
       </c>
       <c r="D24" t="n">
-        <v>21.9427045873282</v>
+        <v>32.68584676876694</v>
       </c>
       <c r="E24" t="n">
-        <v>21.9427045873282</v>
+        <v>32.68584676876694</v>
       </c>
       <c r="F24" t="n">
-        <v>21.9427045873282</v>
+        <v>32.68584676876694</v>
       </c>
       <c r="G24" t="n">
-        <v>21.9427045873282</v>
+        <v>32.68584676876694</v>
       </c>
       <c r="H24" t="n">
         <v>21.9427045873282</v>
@@ -6066,25 +6068,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J24" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K24" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L24" t="n">
-        <v>409.2622680873972</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M24" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N24" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O24" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P24" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q24" t="n">
         <v>1097.13522936641</v>
@@ -6093,25 +6095,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S24" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T24" t="n">
-        <v>726.0805366250836</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U24" t="n">
-        <v>499.1540951430621</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V24" t="n">
-        <v>499.1540951430621</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="W24" t="n">
-        <v>499.1540951430621</v>
+        <v>617.6942962177218</v>
       </c>
       <c r="X24" t="n">
-        <v>499.1540951430621</v>
+        <v>411.1673976232993</v>
       </c>
       <c r="Y24" t="n">
-        <v>293.4256593667126</v>
+        <v>205.4389618469498</v>
       </c>
     </row>
     <row r="25">
@@ -6181,7 +6183,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="V25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W25" t="n">
         <v>21.9427045873282</v>
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>543.0265276662028</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="C26" t="n">
-        <v>543.0265276662028</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="D26" t="n">
-        <v>543.0265276662028</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="E26" t="n">
         <v>543.0265276662028</v>
@@ -6227,22 +6229,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K26" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L26" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N26" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O26" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P26" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q26" t="n">
         <v>1097.13522936641</v>
@@ -6269,7 +6271,7 @@
         <v>1097.13522936641</v>
       </c>
       <c r="Y26" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6305,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J27" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K27" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L27" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M27" t="n">
-        <v>359.1441712859057</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="N27" t="n">
-        <v>630.6851405540922</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="O27" t="n">
-        <v>898.564759531413</v>
+        <v>898.5647595314132</v>
       </c>
       <c r="P27" t="n">
         <v>1097.13522936641</v>
@@ -6333,7 +6335,7 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T27" t="n">
-        <v>1097.13522936641</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="U27" t="n">
         <v>920.9637740991661</v>
@@ -6388,7 +6390,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L28" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M28" t="n">
         <v>108.7246574309869</v>
@@ -6409,13 +6411,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V28" t="n">
         <v>21.9427045873282</v>
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>298.9970554374318</v>
+        <v>289.0085846595924</v>
       </c>
       <c r="C29" t="n">
-        <v>298.9970554374318</v>
+        <v>289.0085846595924</v>
       </c>
       <c r="D29" t="n">
-        <v>298.9970554374318</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="E29" t="n">
-        <v>298.9970554374318</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="F29" t="n">
-        <v>298.9970554374318</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="G29" t="n">
-        <v>298.9970554374318</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="H29" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I29" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J29" t="n">
         <v>21.9427045873282</v>
@@ -6467,19 +6469,19 @@
         <v>143.241092649432</v>
       </c>
       <c r="L29" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1689795623907</v>
+        <v>586.168979562391</v>
       </c>
       <c r="N29" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003605</v>
       </c>
       <c r="O29" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P29" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q29" t="n">
         <v>1097.13522936641</v>
@@ -6494,19 +6496,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U29" t="n">
-        <v>853.1057571376389</v>
+        <v>843.1172863597997</v>
       </c>
       <c r="V29" t="n">
-        <v>576.0514062875353</v>
+        <v>843.1172863597997</v>
       </c>
       <c r="W29" t="n">
-        <v>298.9970554374318</v>
+        <v>843.1172863597997</v>
       </c>
       <c r="X29" t="n">
-        <v>298.9970554374318</v>
+        <v>566.062935509696</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.9970554374318</v>
+        <v>289.0085846595924</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C30" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D30" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E30" t="n">
         <v>21.9427045873282</v>
@@ -6540,52 +6542,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J30" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K30" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L30" t="n">
-        <v>29.3360154338131</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M30" t="n">
-        <v>277.9660032696079</v>
+        <v>541.5612782974328</v>
       </c>
       <c r="N30" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="O30" t="n">
-        <v>817.386591515115</v>
+        <v>898.5647595314132</v>
       </c>
       <c r="P30" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q30" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R30" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S30" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T30" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U30" t="n">
-        <v>630.4290419169106</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V30" t="n">
-        <v>630.4290419169106</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W30" t="n">
-        <v>591.8075679552455</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X30" t="n">
-        <v>385.280669360823</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y30" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>190.9695257299568</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C31" t="n">
         <v>21.9427045873282</v>
@@ -6625,7 +6627,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L31" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M31" t="n">
         <v>108.7246574309869</v>
@@ -6652,19 +6654,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U31" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V31" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W31" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X31" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y31" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>22.60864108688619</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="C32" t="n">
-        <v>22.60864108688619</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D32" t="n">
-        <v>22.60864108688619</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="E32" t="n">
-        <v>22.60864108688619</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="F32" t="n">
-        <v>22.60864108688619</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="G32" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H32" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I32" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J32" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K32" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L32" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M32" t="n">
         <v>586.1689795623907</v>
@@ -6722,28 +6724,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R32" t="n">
-        <v>1009.87902856483</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S32" t="n">
-        <v>801.9346328844877</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T32" t="n">
-        <v>576.7173427870933</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U32" t="n">
-        <v>576.7173427870933</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V32" t="n">
-        <v>576.7173427870933</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W32" t="n">
-        <v>299.6629919369898</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X32" t="n">
-        <v>299.6629919369898</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y32" t="n">
-        <v>22.60864108688619</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.9427045873282</v>
+        <v>283.5861003996782</v>
       </c>
       <c r="C33" t="n">
-        <v>21.9427045873282</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="D33" t="n">
-        <v>21.9427045873282</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E33" t="n">
         <v>21.9427045873282</v>
@@ -6777,25 +6779,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J33" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K33" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L33" t="n">
-        <v>29.3360154338131</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M33" t="n">
-        <v>300.8769847019996</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N33" t="n">
-        <v>572.4179539701861</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O33" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P33" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
@@ -6804,25 +6806,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S33" t="n">
-        <v>1088.006325220726</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T33" t="n">
-        <v>1088.006325220726</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U33" t="n">
-        <v>1088.006325220726</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V33" t="n">
-        <v>853.7550817463274</v>
+        <v>862.8839858920107</v>
       </c>
       <c r="W33" t="n">
-        <v>601.2405900796607</v>
+        <v>862.8839858920107</v>
       </c>
       <c r="X33" t="n">
-        <v>394.7136914852382</v>
+        <v>656.3570872975882</v>
       </c>
       <c r="Y33" t="n">
-        <v>188.9852557088886</v>
+        <v>450.6286515212387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F34" t="n">
-        <v>55.02765936692805</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L34" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M34" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N34" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O34" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="X34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="Y34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>298.9970554374318</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="C35" t="n">
-        <v>298.9970554374318</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="D35" t="n">
-        <v>298.9970554374318</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="E35" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="F35" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="G35" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="H35" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I35" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J35" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K35" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L35" t="n">
         <v>345.6915471007955</v>
@@ -6947,13 +6949,13 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N35" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003606</v>
       </c>
       <c r="O35" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813537</v>
       </c>
       <c r="P35" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q35" t="n">
         <v>1097.13522936641</v>
@@ -6977,7 +6979,7 @@
         <v>1097.13522936641</v>
       </c>
       <c r="X35" t="n">
-        <v>820.0808785163064</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="Y35" t="n">
         <v>543.0265276662028</v>
@@ -7014,25 +7016,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J36" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K36" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L36" t="n">
-        <v>277.4136198757311</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M36" t="n">
-        <v>548.9545891439176</v>
+        <v>541.5612782974328</v>
       </c>
       <c r="N36" t="n">
-        <v>820.4955584121041</v>
+        <v>549.5069725377946</v>
       </c>
       <c r="O36" t="n">
-        <v>1088.375177389425</v>
+        <v>817.3865915151152</v>
       </c>
       <c r="P36" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q36" t="n">
         <v>1097.13522936641</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D37" t="n">
-        <v>21.9427045873282</v>
+        <v>946.624556119421</v>
       </c>
       <c r="E37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="F37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="G37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="I37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="J37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="K37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="L37" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521108</v>
       </c>
       <c r="M37" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N37" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O37" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C38" t="n">
-        <v>21.9427045873282</v>
+        <v>853.7716936371971</v>
       </c>
       <c r="D38" t="n">
-        <v>21.9427045873282</v>
+        <v>853.7716936371971</v>
       </c>
       <c r="E38" t="n">
-        <v>21.9427045873282</v>
+        <v>576.7173427870935</v>
       </c>
       <c r="F38" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G38" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="H38" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I38" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J38" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K38" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494322</v>
       </c>
       <c r="L38" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007957</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623911</v>
       </c>
       <c r="N38" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003606</v>
       </c>
       <c r="O38" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P38" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q38" t="n">
         <v>1097.13522936641</v>
@@ -7205,19 +7207,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U38" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V38" t="n">
-        <v>576.0514062875353</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W38" t="n">
-        <v>298.9970554374318</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X38" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y38" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J39" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K39" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L39" t="n">
-        <v>277.4136198757311</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M39" t="n">
-        <v>548.9545891439176</v>
+        <v>541.5612782974328</v>
       </c>
       <c r="N39" t="n">
-        <v>820.4955584121041</v>
+        <v>549.5069725377946</v>
       </c>
       <c r="O39" t="n">
-        <v>1088.375177389425</v>
+        <v>817.3865915151152</v>
       </c>
       <c r="P39" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q39" t="n">
         <v>1097.13522936641</v>
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C40" t="n">
-        <v>33.63621338571812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D40" t="n">
         <v>21.9427045873282</v>
@@ -7336,7 +7338,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L40" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M40" t="n">
         <v>108.7246574309869</v>
@@ -7366,16 +7368,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="V40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="C41" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="D41" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="E41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="F41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="G41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="H41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J41" t="n">
         <v>21.9427045873282</v>
@@ -7424,10 +7426,10 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O41" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P41" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q41" t="n">
         <v>1097.13522936641</v>
@@ -7445,16 +7447,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V41" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W41" t="n">
-        <v>576.0514062875353</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X41" t="n">
-        <v>298.9970554374318</v>
+        <v>853.7716936371971</v>
       </c>
       <c r="Y41" t="n">
-        <v>21.9427045873282</v>
+        <v>576.7173427870935</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>383.4430527433227</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C42" t="n">
-        <v>383.4430527433227</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D42" t="n">
-        <v>383.4430527433227</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E42" t="n">
-        <v>225.8335237461774</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F42" t="n">
-        <v>225.8335237461774</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G42" t="n">
-        <v>88.43634172088213</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H42" t="n">
         <v>21.9427045873282</v>
@@ -7488,22 +7490,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J42" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K42" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L42" t="n">
-        <v>277.4136198757311</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M42" t="n">
-        <v>548.9545891439176</v>
+        <v>541.5612782974328</v>
       </c>
       <c r="N42" t="n">
-        <v>820.4955584121041</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="O42" t="n">
-        <v>1088.375177389425</v>
+        <v>898.5647595314132</v>
       </c>
       <c r="P42" t="n">
         <v>1097.13522936641</v>
@@ -7521,19 +7523,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U42" t="n">
-        <v>870.2087878843885</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V42" t="n">
-        <v>635.9575444099894</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W42" t="n">
-        <v>383.4430527433227</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X42" t="n">
-        <v>383.4430527433227</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y42" t="n">
-        <v>383.4430527433227</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="43">
@@ -7573,7 +7575,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L43" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M43" t="n">
         <v>108.7246574309869</v>
@@ -7588,16 +7590,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R43" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U43" t="n">
         <v>21.9427045873282</v>
@@ -7622,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870935</v>
       </c>
       <c r="C44" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870935</v>
       </c>
       <c r="D44" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870935</v>
       </c>
       <c r="E44" t="n">
-        <v>820.0808785163064</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="F44" t="n">
-        <v>543.0265276662028</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="G44" t="n">
-        <v>265.9721768160992</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="H44" t="n">
-        <v>229.2399852622009</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I44" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J44" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K44" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L44" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1689795623909</v>
+        <v>586.168979562391</v>
       </c>
       <c r="N44" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003605</v>
       </c>
       <c r="O44" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P44" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q44" t="n">
         <v>1097.13522936641</v>
@@ -7688,10 +7690,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="X44" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371971</v>
       </c>
       <c r="Y44" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870935</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>517.8373438740774</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C45" t="n">
-        <v>345.0842287958946</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D45" t="n">
-        <v>197.4959221548385</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E45" t="n">
-        <v>39.88639315769316</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F45" t="n">
         <v>21.9427045873282</v>
@@ -7725,22 +7727,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J45" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K45" t="n">
-        <v>38.09606741079833</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L45" t="n">
-        <v>286.1736718527163</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M45" t="n">
-        <v>557.7146411209028</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="N45" t="n">
-        <v>829.2556103890893</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="O45" t="n">
-        <v>1097.13522936641</v>
+        <v>898.5647595314132</v>
       </c>
       <c r="P45" t="n">
         <v>1097.13522936641</v>
@@ -7758,19 +7760,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U45" t="n">
-        <v>1097.13522936641</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V45" t="n">
-        <v>1097.13522936641</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W45" t="n">
-        <v>1097.13522936641</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X45" t="n">
-        <v>890.6083307719874</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y45" t="n">
-        <v>684.8798949956379</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="46">
@@ -7810,7 +7812,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L46" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M46" t="n">
         <v>108.7246574309869</v>
@@ -7831,7 +7833,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S46" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T46" t="n">
         <v>21.9427045873282</v>
@@ -7982,7 +7984,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L2" t="n">
-        <v>434.3676631324684</v>
+        <v>434.3676631324683</v>
       </c>
       <c r="M2" t="n">
         <v>467.4940748325458</v>
@@ -7997,7 +7999,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8058,7 +8060,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L3" t="n">
         <v>385.6739591155975</v>
@@ -8067,13 +8069,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
-        <v>258.5531625267515</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
         <v>139.0313383333333</v>
       </c>
       <c r="P3" t="n">
-        <v>331.2012793855346</v>
+        <v>328.0609087825154</v>
       </c>
       <c r="Q3" t="n">
         <v>218.4803792452831</v>
@@ -8219,7 +8221,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L5" t="n">
-        <v>434.3676631324684</v>
+        <v>434.3676631324683</v>
       </c>
       <c r="M5" t="n">
         <v>467.4940748325458</v>
@@ -8292,10 +8294,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
         <v>385.6739591155975</v>
@@ -8304,13 +8306,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>358.992471844272</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
-        <v>331.2012793855346</v>
+        <v>139.473584579462</v>
       </c>
       <c r="Q6" t="n">
         <v>136.482229733871</v>
@@ -8453,7 +8455,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L8" t="n">
         <v>434.3676631324684</v>
@@ -8529,13 +8531,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>213.2531819083929</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
         <v>412.8644904155703</v>
@@ -8544,13 +8546,13 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
-        <v>139.0313383333333</v>
+        <v>253.2939538214777</v>
       </c>
       <c r="P9" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8690,13 +8692,13 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L11" t="n">
         <v>434.3676631324684</v>
       </c>
       <c r="M11" t="n">
-        <v>467.4940748325457</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N11" t="n">
         <v>454.8408013884635</v>
@@ -8769,13 +8771,13 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>143.2439403504901</v>
+        <v>134.395403</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>412.8644904155703</v>
+        <v>139.1386460980858</v>
       </c>
       <c r="N12" t="n">
         <v>402.3419766228525</v>
@@ -8784,10 +8786,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9015,16 +9017,16 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N15" t="n">
-        <v>320.5492771539184</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>331.2012793855346</v>
+        <v>167.4104304051884</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9240,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9249,10 +9251,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>280.2420007006317</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N18" t="n">
-        <v>128.05816928125</v>
+        <v>262.2514961538888</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9477,10 +9479,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K21" t="n">
-        <v>143.2439403504901</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9492,7 +9494,7 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O21" t="n">
-        <v>409.6168120477987</v>
+        <v>285.2848966592321</v>
       </c>
       <c r="P21" t="n">
         <v>130.625047228972</v>
@@ -9714,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9723,7 +9725,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>280.2420007006317</v>
+        <v>354.7721594580186</v>
       </c>
       <c r="N24" t="n">
         <v>128.05816928125</v>
@@ -9735,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9878,7 +9880,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L26" t="n">
-        <v>434.3676631324683</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M26" t="n">
         <v>467.4940748325458</v>
@@ -9951,19 +9953,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K27" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
-        <v>221.1367956094978</v>
+        <v>362.2401502120439</v>
       </c>
       <c r="N27" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -10115,7 +10117,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
-        <v>434.3676631324683</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M29" t="n">
         <v>467.4940748325458</v>
@@ -10188,19 +10190,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K30" t="n">
         <v>134.395403</v>
       </c>
       <c r="L30" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>389.722084928306</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N30" t="n">
-        <v>402.3419766228525</v>
+        <v>218.0822725708052</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10209,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10349,7 +10351,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L32" t="n">
         <v>434.3676631324684</v>
@@ -10425,28 +10427,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K33" t="n">
         <v>134.395403</v>
       </c>
       <c r="L33" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N33" t="n">
-        <v>402.3419766228525</v>
+        <v>218.0822725708051</v>
       </c>
       <c r="O33" t="n">
-        <v>386.4744065605342</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10662,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K36" t="n">
         <v>134.395403</v>
@@ -10671,19 +10673,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>412.8644904155703</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N36" t="n">
-        <v>402.3419766228525</v>
+        <v>136.0841230593932</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>139.473584579462</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10899,7 +10901,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K39" t="n">
         <v>134.395403</v>
@@ -10908,19 +10910,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>412.8644904155703</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N39" t="n">
-        <v>402.3419766228525</v>
+        <v>136.0841230593932</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>139.473584579462</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11136,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K42" t="n">
         <v>134.395403</v>
@@ -11145,16 +11147,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>412.8644904155703</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N42" t="n">
-        <v>402.3419766228525</v>
+        <v>218.0822725708052</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>139.473584579462</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
         <v>136.482229733871</v>
@@ -11373,25 +11375,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K45" t="n">
-        <v>143.2439403504901</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>412.8644904155703</v>
+        <v>362.2401502120439</v>
       </c>
       <c r="N45" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
         <v>136.482229733871</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>383.716409991395</v>
+        <v>347.992184208451</v>
       </c>
       <c r="C2" t="n">
         <v>366.9850956789426</v>
@@ -22595,16 +22597,16 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>9.888586070061081</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
         <v>76.2463096589521</v>
@@ -22613,7 +22615,7 @@
         <v>96.5777917895669</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="3">
@@ -22623,22 +22625,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>57.30356099545209</v>
       </c>
       <c r="H3" t="n">
         <v>110.4625155221328</v>
@@ -22671,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>57.83558556915582</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
         <v>249.98934675</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D5" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E5" t="n">
         <v>383.1180357552875</v>
@@ -22799,7 +22801,7 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H5" t="n">
-        <v>147.1806491994257</v>
+        <v>96.55472588167004</v>
       </c>
       <c r="I5" t="n">
         <v>205.224307868124</v>
@@ -22829,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X5" t="n">
         <v>370.8615991311694</v>
@@ -22860,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>146.1124235746456</v>
@@ -22875,7 +22877,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>110.4625155221328</v>
@@ -22911,22 +22913,22 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>44.16833865242018</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>183.4572470524747</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.94497456690883</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C7" t="n">
         <v>167.3365529312023</v>
@@ -22960,10 +22962,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7585467974036</v>
+        <v>78.45867480140757</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -23027,10 +23029,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>347.4124432514906</v>
       </c>
       <c r="F8" t="n">
-        <v>239.1552863360185</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G8" t="n">
         <v>140.5709580622284</v>
@@ -23066,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
         <v>205.8649517235392</v>
@@ -23097,19 +23099,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>145.2934483255617</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>131.137358225386</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>168.9616139056444</v>
@@ -23154,13 +23156,13 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
         <v>204.4616296084783</v>
@@ -23197,10 +23199,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>153.7585467974036</v>
+        <v>78.45867480140757</v>
       </c>
       <c r="J10" t="n">
-        <v>4.460827879852118</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -23267,16 +23269,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H11" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I11" t="n">
-        <v>169.50008208518</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
         <v>0.6592771345624158</v>
@@ -23303,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>86.25127718860955</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
@@ -23334,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>50.59846856447039</v>
       </c>
       <c r="C12" t="n">
-        <v>148.8829366208612</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23382,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T12" t="n">
         <v>198.3825319082687</v>
@@ -23416,7 +23418,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
         <v>149.0055665145194</v>
@@ -23434,13 +23436,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I13" t="n">
-        <v>153.7585467974036</v>
+        <v>78.45867480140757</v>
       </c>
       <c r="J13" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.18412616544215</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R13" t="n">
         <v>173.3911476697823</v>
@@ -23510,13 +23512,13 @@
         <v>140.5709580622284</v>
       </c>
       <c r="H14" t="n">
-        <v>96.55472588167004</v>
+        <v>302.4383108843565</v>
       </c>
       <c r="I14" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>50.59846856447039</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>139.6537966034037</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -23671,13 +23673,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I16" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>173.3911476697823</v>
+        <v>74.23872090402212</v>
       </c>
       <c r="S16" t="n">
         <v>222.3574069614225</v>
@@ -23729,31 +23731,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>347.4124432514906</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G17" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H17" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I17" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
-        <v>106.126596917933</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T17" t="n">
         <v>222.9651171964204</v>
@@ -23795,7 +23797,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -23859,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>139.6537966034037</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23871,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>104.1537809005699</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
         <v>203.671151418586</v>
@@ -23905,7 +23907,7 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H19" t="n">
-        <v>161.6340720089168</v>
+        <v>156.1120930370908</v>
       </c>
       <c r="I19" t="n">
         <v>153.7585467974036</v>
@@ -23935,10 +23937,10 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R19" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T19" t="n">
         <v>228.3324659915077</v>
@@ -23972,10 +23974,10 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F20" t="n">
         <v>407.2938634805408</v>
@@ -23987,10 +23989,10 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I20" t="n">
-        <v>164.4534809275654</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24020,16 +24022,16 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>292.1683518841601</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X20" t="n">
         <v>96.5777917895669</v>
@@ -24048,25 +24050,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>24.65424355893536</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24102,13 +24104,13 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
-        <v>10.10629824057091</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
@@ -24178,7 +24180,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T22" t="n">
-        <v>228.3324659915077</v>
+        <v>49.4193393498993</v>
       </c>
       <c r="U22" t="n">
         <v>286.0522703910642</v>
@@ -24187,7 +24189,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24209,16 +24211,16 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>82.3209254129959</v>
+        <v>115.015555248115</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F23" t="n">
         <v>133.0100561389384</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H23" t="n">
         <v>338.1439033881534</v>
@@ -24266,10 +24268,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>108.9409394940712</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>67.62958430615529</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>146.1124235746456</v>
@@ -24300,7 +24302,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4625155221328</v>
+        <v>99.82680476250843</v>
       </c>
       <c r="I24" t="n">
         <v>86.50354346547167</v>
@@ -24333,10 +24335,10 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24345,10 +24347,10 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W25" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>109.4326026497926</v>
+        <v>109.4326026497925</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
@@ -24449,10 +24451,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>108.8342284136849</v>
       </c>
       <c r="F26" t="n">
-        <v>133.0100561389384</v>
+        <v>133.0100561389383</v>
       </c>
       <c r="G26" t="n">
         <v>173.2655878973476</v>
@@ -24509,7 +24511,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24573,10 +24575,10 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>23.97279119369711</v>
       </c>
       <c r="U27" t="n">
-        <v>50.24743635262988</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S28" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T28" t="n">
         <v>228.3324659915077</v>
@@ -24658,7 +24660,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W28" t="n">
         <v>286.0925768874155</v>
@@ -24683,7 +24685,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>92.86878861761932</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
@@ -24695,13 +24697,13 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H29" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I29" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24734,19 +24736,19 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
-        <v>9.888586070061081</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>96.57779178956685</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="30">
@@ -24765,7 +24767,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
@@ -24804,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6571770672012</v>
+        <v>50.24743635262965</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>211.7540875279516</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.5071177802778</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -24892,7 +24894,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
@@ -24926,10 +24928,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G32" t="n">
-        <v>414.8547654038309</v>
+        <v>173.2655878973476</v>
       </c>
       <c r="H32" t="n">
         <v>338.1439033881534</v>
@@ -24938,7 +24940,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24962,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>55.46718390731333</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U32" t="n">
         <v>251.4777635765444</v>
@@ -24977,7 +24979,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
         <v>370.8615991311694</v>
@@ -24996,13 +24998,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>68.03205578034832</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
@@ -25044,7 +25046,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
-        <v>159.9239988014178</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
         <v>198.3825319082687</v>
@@ -25056,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25084,10 +25086,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>135.1354836983042</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H34" t="n">
         <v>161.6340720089168</v>
@@ -25135,7 +25137,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458071</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>142.1272324849117</v>
+        <v>109.4326026497925</v>
       </c>
       <c r="C35" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>115.6748323826775</v>
       </c>
       <c r="E35" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
@@ -25175,7 +25177,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25217,7 +25219,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>96.5777917895669</v>
+        <v>96.57779178956685</v>
       </c>
       <c r="Y35" t="n">
         <v>112.4032644096333</v>
@@ -25287,7 +25289,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
-        <v>50.24743635262988</v>
+        <v>50.24743635262965</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25315,10 +25317,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>117.0670640461101</v>
       </c>
       <c r="F37" t="n">
         <v>146.1590214098045</v>
@@ -25360,7 +25362,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S37" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T37" t="n">
         <v>228.3324659915077</v>
@@ -25391,19 +25393,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>126.0551953070217</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>108.8342284136849</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389383</v>
       </c>
       <c r="G38" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H38" t="n">
         <v>338.1439033881534</v>
@@ -25412,7 +25414,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25445,16 +25447,16 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U38" t="n">
-        <v>9.888586070061081</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V38" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.6870717512358</v>
@@ -25524,7 +25526,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>50.24743635262988</v>
+        <v>50.24743635262965</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>137.4289928041133</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
         <v>146.9746241731992</v>
@@ -25606,7 +25608,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W40" t="n">
         <v>286.0925768874155</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497925</v>
       </c>
       <c r="C41" t="n">
         <v>366.9850956789426</v>
@@ -25634,7 +25636,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>108.8342284136849</v>
       </c>
       <c r="F41" t="n">
         <v>407.2938634805408</v>
@@ -25649,7 +25651,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25685,13 +25687,13 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V41" t="n">
-        <v>86.944044016036</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>96.5777917895669</v>
+        <v>129.9316987592485</v>
       </c>
       <c r="Y41" t="n">
         <v>112.4032644096333</v>
@@ -25713,16 +25715,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H42" t="n">
-        <v>44.63381475991439</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I42" t="n">
         <v>86.50354346547167</v>
@@ -25761,7 +25763,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>50.24743635262965</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25770,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R43" t="n">
         <v>173.3911476697823</v>
       </c>
       <c r="S43" t="n">
-        <v>123.2049801956623</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T43" t="n">
         <v>228.3324659915077</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25871,22 +25873,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>108.834228413685</v>
+        <v>108.8342284136849</v>
       </c>
       <c r="F44" t="n">
-        <v>133.0100561389384</v>
+        <v>133.0100561389383</v>
       </c>
       <c r="G44" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H44" t="n">
-        <v>301.7790337497941</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>129.9316987592485</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="45">
@@ -25941,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>125.741980398888</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>136.0232102050423</v>
@@ -25998,13 +26000,13 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>50.24743635262965</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S46" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T46" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U46" t="n">
         <v>286.0522703910642</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>493622.9005375998</v>
+        <v>493622.9005375997</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>493622.9005375998</v>
+        <v>493622.9005375997</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>493622.9005375998</v>
+        <v>493622.9005375996</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>493622.9005375997</v>
+        <v>493622.9005375996</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>493622.9005375997</v>
+        <v>493622.9005375996</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>493622.9005375998</v>
+        <v>493622.9005375997</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>493622.9005375998</v>
+        <v>493622.9005375996</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>493622.9005375998</v>
+        <v>493622.9005375997</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>493622.9005375998</v>
+        <v>493622.9005375996</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493622.9005375998</v>
+        <v>493622.9005375996</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>493622.9005375996</v>
+        <v>493622.9005375997</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26319,7 @@
         <v>121223.9866896454</v>
       </c>
       <c r="D2" t="n">
-        <v>121223.9866896455</v>
+        <v>121223.9866896454</v>
       </c>
       <c r="E2" t="n">
         <v>121223.9866896454</v>
@@ -26326,7 +26328,7 @@
         <v>121223.9866896454</v>
       </c>
       <c r="G2" t="n">
-        <v>121223.9866896455</v>
+        <v>121223.9866896454</v>
       </c>
       <c r="H2" t="n">
         <v>121223.9866896454</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773984</v>
+        <v>91918.81236773985</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808624</v>
+        <v>71764.71248808625</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>8932.273136504818</v>
       </c>
       <c r="C4" t="n">
-        <v>8932.273136504817</v>
+        <v>8932.273136504818</v>
       </c>
       <c r="D4" t="n">
-        <v>8932.273136504817</v>
+        <v>8932.273136504818</v>
       </c>
       <c r="E4" t="n">
         <v>8932.273136504818</v>
@@ -26430,7 +26432,7 @@
         <v>8932.273136504818</v>
       </c>
       <c r="G4" t="n">
-        <v>8932.273136504818</v>
+        <v>8932.27313650482</v>
       </c>
       <c r="H4" t="n">
         <v>8932.273136504818</v>
@@ -26442,7 +26444,7 @@
         <v>8932.27313650482</v>
       </c>
       <c r="K4" t="n">
-        <v>8932.27313650482</v>
+        <v>8932.273136504818</v>
       </c>
       <c r="L4" t="n">
         <v>8932.273136504818</v>
@@ -26457,7 +26459,7 @@
         <v>8932.273136504818</v>
       </c>
       <c r="P4" t="n">
-        <v>8932.273136504818</v>
+        <v>8932.27313650482</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29931.15430096864</v>
+        <v>-29931.15430096869</v>
       </c>
       <c r="C6" t="n">
-        <v>61987.65806677121</v>
+        <v>61987.65806677119</v>
       </c>
       <c r="D6" t="n">
-        <v>61987.65806677121</v>
+        <v>61987.6580667712</v>
       </c>
       <c r="E6" t="n">
         <v>95615.2580667712</v>
       </c>
       <c r="F6" t="n">
+        <v>95615.25806677119</v>
+      </c>
+      <c r="G6" t="n">
+        <v>95615.25806677119</v>
+      </c>
+      <c r="H6" t="n">
+        <v>95615.25806677117</v>
+      </c>
+      <c r="I6" t="n">
+        <v>95615.25806677122</v>
+      </c>
+      <c r="J6" t="n">
+        <v>23850.54557868496</v>
+      </c>
+      <c r="K6" t="n">
+        <v>95615.25806677117</v>
+      </c>
+      <c r="L6" t="n">
         <v>95615.2580667712</v>
       </c>
-      <c r="G6" t="n">
+      <c r="M6" t="n">
         <v>95615.2580667712</v>
       </c>
-      <c r="H6" t="n">
+      <c r="N6" t="n">
         <v>95615.2580667712</v>
       </c>
-      <c r="I6" t="n">
-        <v>95615.2580667712</v>
-      </c>
-      <c r="J6" t="n">
-        <v>23850.54557868499</v>
-      </c>
-      <c r="K6" t="n">
-        <v>95615.2580667712</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>95615.25806677117</v>
-      </c>
-      <c r="M6" t="n">
-        <v>95615.25806677117</v>
-      </c>
-      <c r="N6" t="n">
-        <v>95615.25806677117</v>
-      </c>
-      <c r="O6" t="n">
-        <v>95615.2580667712</v>
       </c>
       <c r="P6" t="n">
         <v>95615.25806677117</v>
@@ -34702,7 +34704,7 @@
         <v>122.5236243051553</v>
       </c>
       <c r="L2" t="n">
-        <v>204.4954085367308</v>
+        <v>204.4954085367307</v>
       </c>
       <c r="M2" t="n">
         <v>242.9064974359549</v>
@@ -34717,7 +34719,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>250.5834388302202</v>
@@ -34787,13 +34789,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
-        <v>130.4949932455015</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>200.5762321565626</v>
+        <v>197.4358615535434</v>
       </c>
       <c r="Q3" t="n">
         <v>81.99814951141209</v>
@@ -34939,7 +34941,7 @@
         <v>122.5236243051553</v>
       </c>
       <c r="L5" t="n">
-        <v>204.4954085367308</v>
+        <v>204.4954085367307</v>
       </c>
       <c r="M5" t="n">
         <v>242.9064974359549</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>250.5834388302202</v>
@@ -35024,13 +35026,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
-        <v>219.9611335109387</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
-        <v>200.5762321565626</v>
+        <v>8.848537350489996</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L8" t="n">
         <v>204.4954085367308</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>78.85777890839285</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>274.2838073416025</v>
@@ -35264,13 +35266,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>114.2626154881444</v>
       </c>
       <c r="P9" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L11" t="n">
         <v>204.4954085367308</v>
       </c>
       <c r="M11" t="n">
-        <v>242.9064974359548</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N11" t="n">
         <v>231.1630643817873</v>
@@ -35489,13 +35491,13 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K12" t="n">
-        <v>8.84853735049013</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2838073416025</v>
+        <v>0.5579630241179461</v>
       </c>
       <c r="N12" t="n">
         <v>274.2838073416025</v>
@@ -35504,10 +35506,10 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35735,16 +35737,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N15" t="n">
-        <v>192.4911078726684</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O15" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P15" t="n">
-        <v>200.5762321565626</v>
+        <v>36.7853831762164</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K18" t="n">
         <v>140.6484434930818</v>
@@ -35969,10 +35971,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M18" t="n">
-        <v>141.6613176266638</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="O18" t="n">
         <v>270.5854737144654</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>8.84853735049013</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L21" t="n">
         <v>250.5834388302202</v>
@@ -36212,7 +36214,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O21" t="n">
-        <v>270.5854737144654</v>
+        <v>146.2535583258988</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K24" t="n">
         <v>140.6484434930818</v>
@@ -36443,7 +36445,7 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M24" t="n">
-        <v>141.6613176266638</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>122.5236243051553</v>
       </c>
       <c r="L26" t="n">
-        <v>204.4954085367307</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M26" t="n">
         <v>242.9064974359549</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L27" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M27" t="n">
-        <v>82.55611253552989</v>
+        <v>223.659467138076</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>270.5854737144654</v>
@@ -36835,7 +36837,7 @@
         <v>122.5236243051553</v>
       </c>
       <c r="L29" t="n">
-        <v>204.4954085367307</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M29" t="n">
         <v>242.9064974359549</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
-        <v>251.1414018543382</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N30" t="n">
-        <v>274.2838073416025</v>
+        <v>90.02410328955521</v>
       </c>
       <c r="O30" t="n">
         <v>270.5854737144654</v>
@@ -36929,7 +36931,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L32" t="n">
         <v>204.4954085367308</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M33" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2838073416025</v>
+        <v>90.0241032895551</v>
       </c>
       <c r="O33" t="n">
-        <v>247.4430682272009</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P33" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,16 +37396,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2838073416025</v>
+        <v>8.025953778143265</v>
       </c>
       <c r="O36" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P36" t="n">
-        <v>8.848537350489996</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,16 +37633,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2838073416025</v>
+        <v>8.025953778143265</v>
       </c>
       <c r="O39" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P39" t="n">
-        <v>8.848537350489996</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,13 +37870,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2838073416025</v>
+        <v>90.02410328955521</v>
       </c>
       <c r="O42" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P42" t="n">
-        <v>8.848537350489996</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>8.84853735049013</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L45" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2838073416025</v>
+        <v>223.659467138076</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
